--- a/data/Subset 1/Video Mosaic Grade 4 Generating Models 7.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 4 Generating Models 7.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3023,7 +3023,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
